--- a/data/probe_data_day1.xlsx
+++ b/data/probe_data_day1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb15237/Documents/Conferences/2022vVMSG/vVMSG2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993962F7-97AF-0D46-865C-7F318C880B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14C818F-145F-3D4F-B874-E57ECB03E484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,319 +189,319 @@
     <t>steen_kn18</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl1</t>
+    <t>MZ2408_AP1_gl1</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl2</t>
+    <t>MZ2408_AP1_gl2</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl3</t>
+    <t>MZ2408_AP1_gl3</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl4</t>
+    <t>MZ2408_AP1_gl4</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl5</t>
+    <t>MZ2408_AP1_gl5</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl01</t>
+    <t>MZ2408_GR3_gl01</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl02</t>
+    <t>MZ2408_GR3_gl02</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl01</t>
+    <t>MZ2408_GR4_gl01</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl02</t>
+    <t>MZ2408_GR4_gl02</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl6</t>
+    <t>MZ2408_AP1_gl6</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl7</t>
+    <t>MZ2408_AP1_gl7</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl8</t>
+    <t>MZ2408_AP1_gl8</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl9</t>
+    <t>MZ2408_AP1_gl9</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl10</t>
+    <t>MZ2408_AP1_gl10</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl11</t>
+    <t>MZ2408_AP1_gl11</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl12</t>
+    <t>MZ2408_AP1_gl12</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl13</t>
+    <t>MZ2408_AP1_gl13</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl14</t>
+    <t>MZ2408_AP1_gl14</t>
   </si>
   <si>
-    <t>MZ_2408_AP1_gl15</t>
+    <t>MZ2408_AP1_gl15</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl01</t>
+    <t>MZ2408_AP4_gl01</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl02</t>
+    <t>MZ2408_AP4_gl02</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl03</t>
+    <t>MZ2408_AP4_gl03</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl04</t>
+    <t>MZ2408_AP4_gl04</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl05</t>
+    <t>MZ2408_AP4_gl05</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl06</t>
+    <t>MZ2408_AP4_gl06</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl07</t>
+    <t>MZ2408_AP4_gl07</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl08</t>
+    <t>MZ2408_AP4_gl08</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl09</t>
+    <t>MZ2408_AP4_gl09</t>
   </si>
   <si>
-    <t>MZ_2408_AP4_gl10</t>
+    <t>MZ2408_AP4_gl10</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl01</t>
+    <t>MZ2208_JC1_gl01</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl02</t>
+    <t>MZ2208_JC1_gl02</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl03</t>
+    <t>MZ2208_JC1_gl03</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl04</t>
+    <t>MZ2208_JC1_gl04</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl05</t>
+    <t>MZ2208_JC1_gl05</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl06</t>
+    <t>MZ2208_JC1_gl06</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl07</t>
+    <t>MZ2208_JC1_gl07</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl08</t>
+    <t>MZ2208_JC1_gl08</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl09</t>
+    <t>MZ2208_JC1_gl09</t>
   </si>
   <si>
-    <t>MZ_2208_JC1_gl10</t>
+    <t>MZ2208_JC1_gl10</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl01</t>
+    <t>MZ2208_SG1_gl01</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl02</t>
+    <t>MZ2208_SG1_gl02</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl03</t>
+    <t>MZ2208_SG1_gl03</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl04</t>
+    <t>MZ2208_SG1_gl04</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl05</t>
+    <t>MZ2208_SG1_gl05</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl06</t>
+    <t>MZ2208_SG1_gl06</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl07</t>
+    <t>MZ2208_SG1_gl07</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl08</t>
+    <t>MZ2208_SG1_gl08</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl09</t>
+    <t>MZ2208_SG1_gl09</t>
   </si>
   <si>
-    <t>MZ_2208_SG1_gl10</t>
+    <t>MZ2208_SG1_gl10</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl01</t>
+    <t>MZ2408_GR1_gl01</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl02</t>
+    <t>MZ2408_GR1_gl02</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl03</t>
+    <t>MZ2408_GR1_gl03</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl04</t>
+    <t>MZ2408_GR1_gl04</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl05</t>
+    <t>MZ2408_GR1_gl05</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl06</t>
+    <t>MZ2408_GR1_gl06</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl07</t>
+    <t>MZ2408_GR1_gl07</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl08</t>
+    <t>MZ2408_GR1_gl08</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl09</t>
+    <t>MZ2408_GR1_gl09</t>
   </si>
   <si>
-    <t>MZ_2408_GR1_gl10</t>
+    <t>MZ2408_GR1_gl10</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl03</t>
+    <t>MZ2408_GR3_gl03</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl04</t>
+    <t>MZ2408_GR3_gl04</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl05</t>
+    <t>MZ2408_GR3_gl05</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl06</t>
+    <t>MZ2408_GR3_gl06</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl07</t>
+    <t>MZ2408_GR3_gl07</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl08</t>
+    <t>MZ2408_GR3_gl08</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl09</t>
+    <t>MZ2408_GR3_gl09</t>
   </si>
   <si>
-    <t>MZ_2408_GR3_gl10</t>
+    <t>MZ2408_GR3_gl10</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl03</t>
+    <t>MZ2408_GR4_gl03</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl04</t>
+    <t>MZ2408_GR4_gl04</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl05</t>
+    <t>MZ2408_GR4_gl05</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl06</t>
+    <t>MZ2408_GR4_gl06</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl07</t>
+    <t>MZ2408_GR4_gl07</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl08</t>
+    <t>MZ2408_GR4_gl08</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl09</t>
+    <t>MZ2408_GR4_gl09</t>
   </si>
   <si>
-    <t>MZ_2408_GR4_gl10</t>
+    <t>MZ2408_GR4_gl10</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl01</t>
+    <t>MZ2408_GR5b_gl01</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl02</t>
+    <t>MZ2408_GR5b_gl02</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl03</t>
+    <t>MZ2408_GR5b_gl03</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl04</t>
+    <t>MZ2408_GR5b_gl04</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl05</t>
+    <t>MZ2408_GR5b_gl05</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl06</t>
+    <t>MZ2408_GR5b_gl06</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl07</t>
+    <t>MZ2408_GR5b_gl07</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl08</t>
+    <t>MZ2408_GR5b_gl08</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl09</t>
+    <t>MZ2408_GR5b_gl09</t>
   </si>
   <si>
-    <t>MZ_2408_GR5b_gl10</t>
+    <t>MZ2408_GR5b_gl10</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl01</t>
+    <t>MZ2308_BH1_gl01</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl02</t>
+    <t>MZ2308_BH1_gl02</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl03</t>
+    <t>MZ2308_BH1_gl03</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl04</t>
+    <t>MZ2308_BH1_gl04</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl05</t>
+    <t>MZ2308_BH1_gl05</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl06</t>
+    <t>MZ2308_BH1_gl06</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl07</t>
+    <t>MZ2308_BH1_gl07</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl08</t>
+    <t>MZ2308_BH1_gl08</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl09</t>
+    <t>MZ2308_BH1_gl09</t>
   </si>
   <si>
-    <t>MZ_2308_BH1_gl10</t>
+    <t>MZ2308_BH1_gl10</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl01</t>
+    <t>MZ2408_PB1_gl01</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl02</t>
+    <t>MZ2408_PB1_gl02</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl03</t>
+    <t>MZ2408_PB1_gl03</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl04</t>
+    <t>MZ2408_PB1_gl04</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl05</t>
+    <t>MZ2408_PB1_gl05</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl06</t>
+    <t>MZ2408_PB1_gl06</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl07</t>
+    <t>MZ2408_PB1_gl07</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl08</t>
+    <t>MZ2408_PB1_gl08</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl09</t>
+    <t>MZ2408_PB1_gl09</t>
   </si>
   <si>
-    <t>MZ_2408_PB1_gl10</t>
+    <t>MZ2408_PB1_gl10</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/probe_data_day1.xlsx
+++ b/data/probe_data_day1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb15237/Documents/Conferences/2022vVMSG/vVMSG2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14C818F-145F-3D4F-B874-E57ECB03E484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A8C9F-4D29-C54E-AA00-61604E0CFB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,319 +189,319 @@
     <t>steen_kn18</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl1</t>
+    <t>MZ2408AP1_gl1</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl2</t>
+    <t>MZ2408AP1_gl2</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl3</t>
+    <t>MZ2408AP1_gl3</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl4</t>
+    <t>MZ2408AP1_gl4</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl5</t>
+    <t>MZ2408AP1_gl5</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl01</t>
+    <t>MZ2408GR3_gl01</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl02</t>
+    <t>MZ2408GR3_gl02</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl01</t>
+    <t>MZ2408GR4_gl01</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl02</t>
+    <t>MZ2408GR4_gl02</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl6</t>
+    <t>MZ2408AP1_gl6</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl7</t>
+    <t>MZ2408AP1_gl7</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl8</t>
+    <t>MZ2408AP1_gl8</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl9</t>
+    <t>MZ2408AP1_gl9</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl10</t>
+    <t>MZ2408AP1_gl10</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl11</t>
+    <t>MZ2408AP1_gl11</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl12</t>
+    <t>MZ2408AP1_gl12</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl13</t>
+    <t>MZ2408AP1_gl13</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl14</t>
+    <t>MZ2408AP1_gl14</t>
   </si>
   <si>
-    <t>MZ2408_AP1_gl15</t>
+    <t>MZ2408AP1_gl15</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl01</t>
+    <t>MZ2408AP4_gl01</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl02</t>
+    <t>MZ2408AP4_gl02</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl03</t>
+    <t>MZ2408AP4_gl03</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl04</t>
+    <t>MZ2408AP4_gl04</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl05</t>
+    <t>MZ2408AP4_gl05</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl06</t>
+    <t>MZ2408AP4_gl06</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl07</t>
+    <t>MZ2408AP4_gl07</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl08</t>
+    <t>MZ2408AP4_gl08</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl09</t>
+    <t>MZ2408AP4_gl09</t>
   </si>
   <si>
-    <t>MZ2408_AP4_gl10</t>
+    <t>MZ2408AP4_gl10</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl01</t>
+    <t>MZ2208JC1_gl01</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl02</t>
+    <t>MZ2208JC1_gl02</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl03</t>
+    <t>MZ2208JC1_gl03</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl04</t>
+    <t>MZ2208JC1_gl04</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl05</t>
+    <t>MZ2208JC1_gl05</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl06</t>
+    <t>MZ2208JC1_gl06</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl07</t>
+    <t>MZ2208JC1_gl07</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl08</t>
+    <t>MZ2208JC1_gl08</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl09</t>
+    <t>MZ2208JC1_gl09</t>
   </si>
   <si>
-    <t>MZ2208_JC1_gl10</t>
+    <t>MZ2208JC1_gl10</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl01</t>
+    <t>MZ2208SG1_gl01</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl02</t>
+    <t>MZ2208SG1_gl02</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl03</t>
+    <t>MZ2208SG1_gl03</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl04</t>
+    <t>MZ2208SG1_gl04</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl05</t>
+    <t>MZ2208SG1_gl05</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl06</t>
+    <t>MZ2208SG1_gl06</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl07</t>
+    <t>MZ2208SG1_gl07</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl08</t>
+    <t>MZ2208SG1_gl08</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl09</t>
+    <t>MZ2208SG1_gl09</t>
   </si>
   <si>
-    <t>MZ2208_SG1_gl10</t>
+    <t>MZ2208SG1_gl10</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl01</t>
+    <t>MZ2408GR1_gl01</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl02</t>
+    <t>MZ2408GR1_gl02</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl03</t>
+    <t>MZ2408GR1_gl03</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl04</t>
+    <t>MZ2408GR1_gl04</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl05</t>
+    <t>MZ2408GR1_gl05</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl06</t>
+    <t>MZ2408GR1_gl06</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl07</t>
+    <t>MZ2408GR1_gl07</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl08</t>
+    <t>MZ2408GR1_gl08</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl09</t>
+    <t>MZ2408GR1_gl09</t>
   </si>
   <si>
-    <t>MZ2408_GR1_gl10</t>
+    <t>MZ2408GR1_gl10</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl03</t>
+    <t>MZ2408GR3_gl03</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl04</t>
+    <t>MZ2408GR3_gl04</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl05</t>
+    <t>MZ2408GR3_gl05</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl06</t>
+    <t>MZ2408GR3_gl06</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl07</t>
+    <t>MZ2408GR3_gl07</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl08</t>
+    <t>MZ2408GR3_gl08</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl09</t>
+    <t>MZ2408GR3_gl09</t>
   </si>
   <si>
-    <t>MZ2408_GR3_gl10</t>
+    <t>MZ2408GR3_gl10</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl03</t>
+    <t>MZ2408GR4_gl03</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl04</t>
+    <t>MZ2408GR4_gl04</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl05</t>
+    <t>MZ2408GR4_gl05</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl06</t>
+    <t>MZ2408GR4_gl06</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl07</t>
+    <t>MZ2408GR4_gl07</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl08</t>
+    <t>MZ2408GR4_gl08</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl09</t>
+    <t>MZ2408GR4_gl09</t>
   </si>
   <si>
-    <t>MZ2408_GR4_gl10</t>
+    <t>MZ2408GR4_gl10</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl01</t>
+    <t>MZ2408GR5b_gl01</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl02</t>
+    <t>MZ2408GR5b_gl02</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl03</t>
+    <t>MZ2408GR5b_gl03</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl04</t>
+    <t>MZ2408GR5b_gl04</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl05</t>
+    <t>MZ2408GR5b_gl05</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl06</t>
+    <t>MZ2408GR5b_gl06</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl07</t>
+    <t>MZ2408GR5b_gl07</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl08</t>
+    <t>MZ2408GR5b_gl08</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl09</t>
+    <t>MZ2408GR5b_gl09</t>
   </si>
   <si>
-    <t>MZ2408_GR5b_gl10</t>
+    <t>MZ2408GR5b_gl10</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl01</t>
+    <t>MZ2308BH1_gl01</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl02</t>
+    <t>MZ2308BH1_gl02</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl03</t>
+    <t>MZ2308BH1_gl03</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl04</t>
+    <t>MZ2308BH1_gl04</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl05</t>
+    <t>MZ2308BH1_gl05</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl06</t>
+    <t>MZ2308BH1_gl06</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl07</t>
+    <t>MZ2308BH1_gl07</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl08</t>
+    <t>MZ2308BH1_gl08</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl09</t>
+    <t>MZ2308BH1_gl09</t>
   </si>
   <si>
-    <t>MZ2308_BH1_gl10</t>
+    <t>MZ2308BH1_gl10</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl01</t>
+    <t>MZ2408PB1_gl01</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl02</t>
+    <t>MZ2408PB1_gl02</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl03</t>
+    <t>MZ2408PB1_gl03</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl04</t>
+    <t>MZ2408PB1_gl04</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl05</t>
+    <t>MZ2408PB1_gl05</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl06</t>
+    <t>MZ2408PB1_gl06</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl07</t>
+    <t>MZ2408PB1_gl07</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl08</t>
+    <t>MZ2408PB1_gl08</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl09</t>
+    <t>MZ2408PB1_gl09</t>
   </si>
   <si>
-    <t>MZ2408_PB1_gl10</t>
+    <t>MZ2408PB1_gl10</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
